--- a/public/preprocessing/@fadilladea10.xlsx
+++ b/public/preprocessing/@fadilladea10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21073</v>
+        <v>24428</v>
       </c>
       <c r="C2" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ad setuju farhan sih</t>
+          <t>silahkan bang di dengarkan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ad', 'setuju', 'farhan', 'sih']</t>
+          <t>['silahkan', 'bang', 'di', 'dengarkan']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['silakan', 'bang', 'di', 'dengarkan']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['ad', 'setuju', 'farhan']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ad', 'tuju', 'farhan']</t>
+          <t>['silakan', 'bang', 'dengarkan']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['sila', 'bang', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21074</v>
+        <v>24429</v>
       </c>
       <c r="C3" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>berasa rebutan</t>
+          <t>namanya juga idup</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['berasa', 'rebutan']</t>
+          <t>['namanya', 'juga', 'idup']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['namanya', 'juga', 'hidup']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['berasa', 'rebutan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['asa', 'rebut']</t>
+          <t>['namanya', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['nama', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21075</v>
+        <v>24430</v>
       </c>
       <c r="C4" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aduh siapa gatau</t>
+          <t>kaga nyet</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['aduh', 'siapa', 'gatau']</t>
+          <t>['kaga', 'nyet']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak', 'monyet']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['aduh', 'gatau']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['aduh', 'gatau']</t>
+          <t>['monyet']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['monyet']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21076</v>
+        <v>24431</v>
       </c>
       <c r="C5" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>engga</t>
+          <t>fuck bro fuck</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>['fuck', 'bro', 'fuck']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['fuck', 'bro', 'fuck']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>['fuck', 'bro', 'fuck']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['fuck', 'bro', 'fuck']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21077</v>
+        <v>24432</v>
       </c>
       <c r="C6" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bagas anjing ngatain</t>
+          <t>kacau kacau</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['bagas', 'anjing', 'ngatain']</t>
+          <t>['kacau', 'kacau']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kacau', 'kacau']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['bagas', 'anjing', 'ngatain']</t>
+          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['bagas', 'anjing', 'ngatain']</t>
+          <t>['kacau', 'kacau']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['kacau', 'kacau']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21078</v>
+        <v>24433</v>
       </c>
       <c r="C7" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>abis dipake apa tuh kalo bole tau</t>
+          <t>aku not included gitu ya rasanya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['abis', 'dipake', 'apa', 'tuh', 'kalo', 'bole', 'tau']</t>
+          <t>['aku', 'not', 'included', 'gitu', 'ya', 'rasanya']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['aku', 'not', 'included', 'begitu', 'ya', 'rasanya']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['abis', 'dipake', 'bole']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['abis', 'dipake', 'bole']</t>
+          <t>['not', 'included']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['not', 'included']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21079</v>
+        <v>24434</v>
       </c>
       <c r="C8" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>rt yawlo pgn bgt air jordan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['rt', 'yawlo', 'pgn', 'bgt', 'air', 'jordan']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'yawlo', 'ingin', 'banget', 'air', 'jordan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yawlo', 'banget', 'air', 'jordan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['yawlo', 'banget', 'air', 'jordan']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21080</v>
+        <v>24435</v>
       </c>
       <c r="C9" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt its official now clubhouse trends di indo is ended took days to its peak and took another week to vanish now </t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'its', 'official', 'now', 'clubhouse', 'trends', 'di', 'indo', 'is', 'ended', 'took', 'days', 'to', 'its', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['its', 'official', 'now', 'clubhouse', 'trends', 'indo', 'is', 'ended', 'took', 'days', 'to', 'its', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['its', 'official', 'now', 'clubhouse', 'trends', 'indo', 'is', 'ended', 'took', 'days', 'to', 'its', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21081</v>
+        <v>24436</v>
       </c>
       <c r="C10" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rt what you like to do for fun me</t>
+          <t>ad setuju farhan sih</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'what', 'you', 'like', 'to', 'do', 'for', 'fun', 'me']</t>
+          <t>['ad', 'setuju', 'farhan', 'sih']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ada', 'setuju', 'farhan', 'sih']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['what', 'you', 'like', 'to', 'do', 'for', 'fun', 'me']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['what', 'you', 'like', 'to', 'do', 'for', 'fun', 'me']</t>
+          <t>['setuju', 'farhan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['tuju', 'farhan']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21082</v>
+        <v>24437</v>
       </c>
       <c r="C11" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mau ketemu banget</t>
+          <t>berasa rebutan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['mau', 'ketemu', 'banget']</t>
+          <t>['berasa', 'rebutan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['berasa', 'berebut']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ketemu', 'banget']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ketemu', 'banget']</t>
+          <t>['berasa', 'berebut']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['asa', 'rebut']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21083</v>
+        <v>24438</v>
       </c>
       <c r="C12" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dia beneran gatau itu yg di foto mobil merk apa ya</t>
+          <t>aduh siapa gatau</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['dia', 'beneran', 'gatau', 'itu', 'yg', 'di', 'foto', 'mobil', 'merk', 'apa', 'ya']</t>
+          <t>['aduh', 'siapa', 'gatau']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['aduh', 'siapa', 'tak, tau']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['beneran', 'gatau', 'foto', 'mobil', 'merk']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['beneran', 'gatau', 'foto', 'mobil', 'merk']</t>
+          <t>['aduh', 'tak, tau']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['aduh', 'tak tau']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21084</v>
+        <v>24439</v>
       </c>
       <c r="C13" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ikutan marah kalo ini</t>
+          <t>engga</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['ikutan', 'marah', 'kalo', 'ini']</t>
+          <t>['engga']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['ikutan', 'marah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['ikut', 'marah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21085</v>
+        <v>24440</v>
       </c>
       <c r="C14" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>mo ketawa tp takut ternyata pemikiran kita ga sejalan</t>
+          <t>bagas anjing ngatain</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['mo', 'ketawa', 'tp', 'takut', 'ternyata', 'pemikiran', 'kita', 'ga', 'sejalan']</t>
+          <t>['bagas', 'anjing', 'ngatain']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['bagas', 'anjing', 'memaki']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['mo', 'ketawa', 'tp', 'takut', 'pemikiran', 'sejalan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['mo', 'ketawa', 'tp', 'takut', 'pikir', 'jalan']</t>
+          <t>['bagas', 'anjing', 'memaki']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['bagas', 'anjing', 'maki']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21086</v>
+        <v>24441</v>
       </c>
       <c r="C15" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>suzuki</t>
+          <t>abis dipake apa tuh kalo bole tau</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['suzuki']</t>
+          <t>['abis', 'dipake', 'apa', 'tuh', 'kalo', 'bole', 'tau']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['habis', 'dipakai', 'apa', 'itu', 'kalau', 'boleh', 'tau']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['suzuki']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['suzuki']</t>
+          <t>['habis', 'dipakai']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['habis', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21087</v>
+        <v>24442</v>
       </c>
       <c r="C16" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>pusiiiiiing</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['pusiiiiiing']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['pusiiiiiing']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['pusiiiiiing']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21088</v>
+        <v>24443</v>
       </c>
       <c r="C17" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt ill always be this type of person</t>
+          <t xml:space="preserve">rt its official now clubhouse trends di indo is ended took days to its peak and took another week to vanish now </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'ill', 'always', 'be', 'this', 'type', 'of', 'person']</t>
+          <t>['rt', 'its', 'official', 'now', 'clubhouse', 'trends', 'di', 'indo', 'is', 'ended', 'took', 'days', 'to', 'its', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'ini', 'official', 'now', 'clubhouse', 'tren', 'di', 'indonesia', 'is', 'ended', 'took', 'days', 'to', 'ini', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['ill', 'always', 'be', 'this', 'type', 'of', 'person']</t>
+          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ill', 'always', 'be', 'this', 'type', 'of', 'person']</t>
+          <t>['official', 'now', 'clubhouse', 'tren', 'indonesia', 'is', 'ended', 'took', 'days', 'to', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['official', 'now', 'clubhouse', 'tren', 'indonesia', 'is', 'ended', 'took', 'days', 'to', 'peak', 'and', 'took', 'another', 'week', 'to', 'vanish', 'now']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21089</v>
+        <v>24444</v>
       </c>
       <c r="C18" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hahahahha bangsaaaaat</t>
+          <t>rt what you like to do for fun me</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['hahahahha', 'bangsaaaaat']</t>
+          <t>['rt', 'what', 'you', 'like', 'to', 'do', 'for', 'fun', 'me']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'apa', 'kamu', 'like', 'to', 'do', 'for', 'fun', 'me']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['hahahahha', 'bangsaaaaat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['hahahahha', 'bangsaaaaat']</t>
+          <t>['like', 'to', 'do', 'for', 'fun', 'me']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['like', 'to', 'do', 'for', 'fun', 'me']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21090</v>
+        <v>24445</v>
       </c>
       <c r="C19" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hahahahaha kenapasih hah</t>
+          <t>mau ketemu banget</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'kenapasih', 'hah']</t>
+          <t>['mau', 'ketemu', 'banget']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['mau', 'ketemu', 'banget']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['hahahahaha', 'kenapasih', 'hah']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['hahahahaha', 'kenapasih', 'hah']</t>
+          <t>['ketemu', 'banget']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['ketemu', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21091</v>
+        <v>24446</v>
       </c>
       <c r="C20" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jiah</t>
+          <t>dia beneran gatau itu yg di foto mobil merk apa ya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['jiah']</t>
+          <t>['dia', 'beneran', 'gatau', 'itu', 'yg', 'di', 'foto', 'mobil', 'merk', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dia', 'benaran', 'tak, tau', 'itu', 'yang', 'di', 'foto', 'mobil', 'merek', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['jiah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['jiah']</t>
+          <t>['benaran', 'tak, tau', 'foto', 'mobil', 'merek']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['benar', 'tak tau', 'foto', 'mobil', 'merek']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21092</v>
+        <v>24447</v>
       </c>
       <c r="C21" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mari dibuktikan ghof</t>
+          <t>ikutan marah kalo ini</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['mari', 'dibuktikan', 'ghof']</t>
+          <t>['ikutan', 'marah', 'kalo', 'ini']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ikutan', 'marah', 'kalau', 'ini']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['mari', 'dibuktikan', 'ghof']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['mari', 'bukti', 'ghof']</t>
+          <t>['ikutan', 'marah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['ikut', 'marah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21093</v>
+        <v>24448</v>
       </c>
       <c r="C22" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>galauin yg mana dulu ni ngab</t>
+          <t>mo ketawa tp takut ternyata pemikiran kita ga sejalan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['galauin', 'yg', 'mana', 'dulu', 'ni', 'ngab']</t>
+          <t>['mo', 'ketawa', 'tp', 'takut', 'ternyata', 'pemikiran', 'kita', 'ga', 'sejalan']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mau', 'tertawa', 'tetapi', 'takut', 'ternyata', 'pemikiran', 'kita', 'tidak', 'sejalan']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['galauin', 'ni', 'ngab']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['galauin', 'ni', 'ngab']</t>
+          <t>['tertawa', 'takut', 'pemikiran', 'sejalan']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['tertawa', 'takut', 'pikir', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21094</v>
+        <v>24449</v>
       </c>
       <c r="C23" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>pas bgt lah buat mengawali hari</t>
+          <t>suzuki</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['pas', 'bgt', 'lah', 'buat', 'mengawali', 'hari']</t>
+          <t>['suzuki']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['suzuki']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['pas', 'bgt', 'mengawali']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['pas', 'bgt', 'awal']</t>
+          <t>['suzuki']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['suzuki']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21095</v>
+        <v>24450</v>
       </c>
       <c r="C24" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>bajingan</t>
+          <t>pusiiiiiing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['bajingan']</t>
+          <t>['pusiiiiiing']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['pusiiiiiing']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['bajingan']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['bajing']</t>
+          <t>['pusiiiiiing']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['pusiiiiiing']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21096</v>
+        <v>24451</v>
       </c>
       <c r="C25" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bener butuh duit anjing</t>
+          <t>rt ill always be this type of person</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bener', 'butuh', 'duit', 'anjing']</t>
+          <t>['rt', 'ill', 'always', 'be', 'this', 'type', 'of', 'person']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ill', 'always', 'be', 'this', 'tipe', 'of', 'person']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bener', 'butuh', 'duit', 'anjing']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bener', 'butuh', 'duit', 'anjing']</t>
+          <t>['ill', 'always', 'be', 'this', 'tipe', 'of', 'person']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['ill', 'always', 'be', 'this', 'tipe', 'of', 'person']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21097</v>
+        <v>24452</v>
       </c>
       <c r="C26" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>naik motor kaya gini berasa cari mati mulu</t>
+          <t>hahahahha bangsaaaaat</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['naik', 'motor', 'kaya', 'gini', 'berasa', 'cari', 'mati', 'mulu']</t>
+          <t>['hahahahha', 'bangsaaaaat']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['hahahahha', 'bangsaaaaat']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['motor', 'kaya', 'gini', 'berasa', 'cari', 'mati', 'mulu']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['motor', 'kaya', 'gin', 'asa', 'cari', 'mati', 'mulu']</t>
+          <t>['hahahahha', 'bangsaaaaat']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['hahahahha', 'bangsaaaaat']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21098</v>
+        <v>24453</v>
       </c>
       <c r="C27" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>nice bro nice</t>
+          <t>hahahahaha kenapasih hah</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['nice', 'bro', 'nice']</t>
+          <t>['hahahahaha', 'kenapasih', 'hah']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['haha', 'kenapasih', 'ha']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['nice', 'bro', 'nice']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['nice', 'bro', 'nice']</t>
+          <t>['haha', 'kenapasih', 'ha']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['haha', 'kenapasih', 'ha']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21099</v>
+        <v>24454</v>
       </c>
       <c r="C28" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>aneh tapi kalo lagu nya sedih gegara saham</t>
+          <t>jiah</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['aneh', 'tapi', 'kalo', 'lagu', 'nya', 'sedih', 'gegara', 'saham']</t>
+          <t>['jiah']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['jiah']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['aneh', 'lagu', 'sedih', 'gegara', 'saham']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['aneh', 'lagu', 'sedih', 'gegara', 'saham']</t>
+          <t>['jiah']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['jiah']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21100</v>
+        <v>24455</v>
       </c>
       <c r="C29" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt  pandemic  snowstorm and  bored guy</t>
+          <t>mari dibuktikan ghof</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
+          <t>['mari', 'dibuktikan', 'ghof']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mari', 'dibuktikan', 'ghof']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
+          <t>['mari', 'dibuktikan', 'ghof']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['mari', 'bukti', 'ghof']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21101</v>
+        <v>24456</v>
       </c>
       <c r="C30" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>masih pagi</t>
+          <t>galauin yg mana dulu ni ngab</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['masih', 'pagi']</t>
+          <t>['galauin', 'yg', 'mana', 'dulu', 'ni', 'ngab']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['galauin', 'yang', 'mana', 'dulu', 'nih', 'ngab']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['pagi']</t>
+          <t>['galauin', 'ngab']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['galauin', 'ngab']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21102</v>
+        <v>24457</v>
       </c>
       <c r="C31" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt me after noticing  slight change in someones energy towards me</t>
+          <t>pas bgt lah buat mengawali hari</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
+          <t>['pas', 'bgt', 'lah', 'buat', 'mengawali', 'hari']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['pas', 'banget', 'lah', 'buat', 'mengawali', 'hari']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
+          <t>['pas', 'banget', 'mengawali']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['pas', 'banget', 'awal']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21103</v>
+        <v>24458</v>
       </c>
       <c r="C32" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ga yakin bakal dibales tp yauda aku nya seneng ko</t>
+          <t>bajingan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['ga', 'yakin', 'bakal', 'dibales', 'tp', 'yauda', 'aku', 'nya', 'seneng', 'ko']</t>
+          <t>['bajingan']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['bajingan']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['dibales', 'tp', 'yauda', 'seneng', 'ko']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['dibales', 'tp', 'yauda', 'neng', 'ko']</t>
+          <t>['bajingan']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['bajing']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21104</v>
+        <v>24459</v>
       </c>
       <c r="C33" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt tutup akun twitter private instagram fokus jalanjalan keliling dunia dan hidup bahagia</t>
+          <t>bener butuh duit anjing</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalanjalan', 'keliling', 'dunia', 'dan', 'hidup', 'bahagia']</t>
+          <t>['bener', 'butuh', 'duit', 'anjing']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['benar', 'butuh', 'duit', 'anjing']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalanjalan', 'keliling', 'dunia', 'hidup', 'bahagia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalanjalan', 'keliling', 'dunia', 'hidup', 'bahagia']</t>
+          <t>['butuh', 'duit', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['butuh', 'duit', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21105</v>
+        <v>24460</v>
       </c>
       <c r="C34" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>kaco parah</t>
+          <t>naik motor kaya gini berasa cari mati mulu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['kaco', 'parah']</t>
+          <t>['naik', 'motor', 'kaya', 'gini', 'berasa', 'cari', 'mati', 'mulu']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['naik', 'motor', 'kayak', 'begini', 'berasa', 'cari', 'mati', 'mulu']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['kaco', 'parah']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['kaco', 'parah']</t>
+          <t>['motor', 'kayak', 'berasa', 'cari', 'mati', 'mulu']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['motor', 'kayak', 'asa', 'cari', 'mati', 'mulu']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21106</v>
+        <v>24461</v>
       </c>
       <c r="C35" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>mampus kalo sakit</t>
+          <t>nice bro nice</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['mampus', 'kalo', 'sakit']</t>
+          <t>['nice', 'bro', 'nice']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['nice', 'bro', 'nice']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['mampus', 'sakit']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['mampus', 'sakit']</t>
+          <t>['nice', 'bro', 'nice']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['nice', 'bro', 'nice']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21107</v>
+        <v>24462</v>
       </c>
       <c r="C36" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>bego bgt</t>
+          <t>aneh tapi kalo lagu nya sedih gegara saham</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['bego', 'bgt']</t>
+          <t>['aneh', 'tapi', 'kalo', 'lagu', 'nya', 'sedih', 'gegara', 'saham']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['aneh', 'tapi', 'kalau', 'lagu', 'nya', 'sedih', 'gara, gara', 'saham']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['bego', 'bgt']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bego', 'bgt']</t>
+          <t>['aneh', 'lagu', 'sedih', 'gara, gara', 'saham']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['aneh', 'lagu', 'sedih', 'gara gara', 'saham']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21108</v>
+        <v>24463</v>
       </c>
       <c r="C37" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt tekke indomie goreng lah edian po we</t>
+          <t>rt  pandemic  snowstorm and  bored guy</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'tekke', 'indomie', 'goreng', 'lah', 'edian', 'po', 'we']</t>
+          <t>['rt', 'pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['tekke', 'indomie', 'goreng', 'edian', 'po', 'we']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tekke', 'indomie', 'goreng', 'edian', 'po', 'we']</t>
+          <t>['pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['pandemic', 'snowstorm', 'and', 'bored', 'guy']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21109</v>
+        <v>24464</v>
       </c>
       <c r="C38" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mati dong kalo ngopi</t>
+          <t>masih pagi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['mati', 'dong', 'kalo', 'ngopi']</t>
+          <t>['masih', 'pagi']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['masih', 'pagi']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['mati', 'ngopi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['mati', 'ngopi']</t>
+          <t>['pagi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['pagi']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21110</v>
+        <v>24465</v>
       </c>
       <c r="C39" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>capeeeeeee</t>
+          <t>rt me after noticing  slight change in someones energy towards me</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['capeeeeeee']</t>
+          <t>['rt', 'me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['capeeeeeee']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['capeeeeeee']</t>
+          <t>['me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['me', 'after', 'noticing', 'slight', 'change', 'in', 'someones', 'energy', 'towards', 'me']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21111</v>
+        <v>24466</v>
       </c>
       <c r="C40" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>masi bangke</t>
+          <t>ga yakin bakal dibales tp yauda aku nya seneng ko</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['masi', 'bangke']</t>
+          <t>['ga', 'yakin', 'bakal', 'dibales', 'tp', 'yauda', 'aku', 'nya', 'seneng', 'ko']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak', 'yakin', 'bakal', 'dibalas', 'tetapi', 'ya, sudah', 'aku', 'nya', 'senang', 'kok']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['masi', 'bangke']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['mas', 'bangke']</t>
+          <t>['dibalas', 'ya, sudah', 'senang']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['balas', 'ya sudah', 'senang']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21112</v>
+        <v>24467</v>
       </c>
       <c r="C41" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ok bgt bro</t>
+          <t>rt tutup akun twitter private instagram fokus jalanjalan keliling dunia dan hidup bahagia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['ok', 'bgt', 'bro']</t>
+          <t>['rt', 'tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalanjalan', 'keliling', 'dunia', 'dan', 'hidup', 'bahagia']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalan, jalan', 'keliling', 'dunia', 'dan', 'hidup', 'bahagia']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['ok', 'bgt', 'bro']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['ok', 'bgt', 'bro']</t>
+          <t>['tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalan, jalan', 'keliling', 'dunia', 'hidup', 'bahagia']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['tutup', 'akun', 'twitter', 'private', 'instagram', 'fokus', 'jalan jalan', 'keliling', 'dunia', 'hidup', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21113</v>
+        <v>24468</v>
       </c>
       <c r="C42" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>bangsat</t>
+          <t>kaco parah</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>['kaco', 'parah']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kaco', 'parah']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['bangsat']</t>
+          <t>['kaco', 'parah']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kaco', 'parah']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21114</v>
+        <v>24469</v>
       </c>
       <c r="C43" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ga ikutan kalo dosa ya nyet</t>
+          <t>mampus kalo sakit</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['ga', 'ikutan', 'kalo', 'dosa', 'ya', 'nyet']</t>
+          <t>['mampus', 'kalo', 'sakit']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mampus', 'kalau', 'sakit']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ikutan', 'dosa', 'nyet']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ikut', 'dosa', 'nyet']</t>
+          <t>['mampus', 'sakit']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['mampus', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21115</v>
+        <v>24470</v>
       </c>
       <c r="C44" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>mabok duls</t>
+          <t>bego bgt</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['mabok', 'duls']</t>
+          <t>['bego', 'bgt']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['bego', 'banget']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['mabok', 'duls']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['mabok', 'duls']</t>
+          <t>['bego', 'banget']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['bego', 'banget']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21116</v>
+        <v>24471</v>
       </c>
       <c r="C45" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>mo ikutan mabok om</t>
+          <t>rt tekke indomie goreng lah edian po we</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['mo', 'ikutan', 'mabok', 'om']</t>
+          <t>['rt', 'tekke', 'indomie', 'goreng', 'lah', 'edian', 'po', 'we']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'tekke', 'indomie', 'goreng', 'lah', 'edian', 'po', 'we']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['mo', 'ikutan', 'mabok', 'om']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['mo', 'ikut', 'mabok', 'om']</t>
+          <t>['tekke', 'indomie', 'goreng', 'edian', 'po', 'we']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['tekke', 'indomie', 'goreng', 'edian', 'po', 'we']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21117</v>
+        <v>24472</v>
       </c>
       <c r="C46" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>emang</t>
+          <t>mati dong kalo ngopi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['emang']</t>
+          <t>['mati', 'dong', 'kalo', 'ngopi']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['mati', 'dong', 'kalau', 'minum, kopi']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['emang']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['emang']</t>
+          <t>['mati', 'minum, kopi']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['mati', 'minum kopi']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21118</v>
+        <v>24473</v>
       </c>
       <c r="C47" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>kocak dah</t>
+          <t>capeeeeeee</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['kocak', 'dah']</t>
+          <t>['capeeeeeee']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['capeeeeeee']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['kocak', 'dah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['kocak', 'dah']</t>
+          <t>['capeeeeeee']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['capeeeeeee']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21119</v>
+        <v>24474</v>
       </c>
       <c r="C48" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>have  great daaaaay</t>
+          <t>masi bangke</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['have', 'great', 'daaaaay']</t>
+          <t>['masi', 'bangke']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['masih', 'bangkai']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['have', 'great', 'daaaaay']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['have', 'great', 'daaaaay']</t>
+          <t>['bangkai']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['bangkai']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21120</v>
+        <v>24475</v>
       </c>
       <c r="C49" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>temen lo tu emang</t>
+          <t>ok bgt bro</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['temen', 'lo', 'tu', 'emang']</t>
+          <t>['ok', 'bgt', 'bro']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['oke', 'banget', 'bro']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['temen', 'lo', 'tu', 'emang']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['temen', 'lo', 'tu', 'emang']</t>
+          <t>['oke', 'banget', 'bro']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['oke', 'banget', 'bro']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21121</v>
+        <v>24476</v>
       </c>
       <c r="C50" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>atuuur</t>
+          <t>bangsat</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['atuuur']</t>
+          <t>['bangsat']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['atuuur']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['atuuur']</t>
+          <t>['bangsat']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['bangsat']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21122</v>
+        <v>24477</v>
       </c>
       <c r="C51" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ogah bgt kalo sm lo yg ada tengah ngobrol ditinggal</t>
+          <t>ga ikutan kalo dosa ya nyet</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['ogah', 'bgt', 'kalo', 'sm', 'lo', 'yg', 'ada', 'tengah', 'ngobrol', 'ditinggal']</t>
+          <t>['ga', 'ikutan', 'kalo', 'dosa', 'ya', 'nyet']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tidak', 'ikutan', 'kalau', 'dosa', 'ya', 'monyet']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['ogah', 'bgt', 'sm', 'lo', 'ngobrol', 'ditinggal']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['ogah', 'bgt', 'sm', 'lo', 'ngobrol', 'tinggal']</t>
+          <t>['ikutan', 'dosa', 'monyet']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ikut', 'dosa', 'monyet']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21123</v>
+        <v>24478</v>
       </c>
       <c r="C52" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>spill dulu sebelom anda jd buronan bang</t>
+          <t>mabok duls</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['spill', 'dulu', 'sebelom', 'anda', 'jd', 'buronan', 'bang']</t>
+          <t>['mabok', 'duls']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['mabuk', 'duls']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['spill', 'sebelom', 'buronan', 'bang']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['spill', 'bom', 'buron', 'bang']</t>
+          <t>['mabuk', 'duls']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['mabuk', 'duls']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21124</v>
+        <v>24479</v>
       </c>
       <c r="C53" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>reply nya bang rai uda tp doi kaga muncul gue liat ni hajar dulu apa gmn ni</t>
+          <t>mo ikutan mabok om</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['reply', 'nya', 'bang', 'rai', 'uda', 'tp', 'doi', 'kaga', 'muncul', 'gue', 'liat', 'ni', 'hajar', 'dulu', 'apa', 'gmn', 'ni']</t>
+          <t>['mo', 'ikutan', 'mabok', 'om']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['mau', 'ikutan', 'mabuk', 'om']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['reply', 'bang', 'rai', 'uda', 'tp', 'doi', 'kaga', 'muncul', 'gue', 'liat', 'ni', 'hajar', 'gmn', 'ni']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['reply', 'bang', 'rai', 'uda', 'tp', 'doi', 'kaga', 'muncul', 'gue', 'liat', 'ni', 'hajar', 'gmn', 'ni']</t>
+          <t>['ikutan', 'mabuk', 'om']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ikut', 'mabuk', 'om']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21125</v>
+        <v>24480</v>
       </c>
       <c r="C54" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>bole langsung masuk liputan kali ya kalo uda kesebut inisial nya</t>
+          <t>emang</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['bole', 'langsung', 'masuk', 'liputan', 'kali', 'ya', 'kalo', 'uda', 'kesebut', 'inisial', 'nya']</t>
+          <t>['emang']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['memang']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['bole', 'langsung', 'masuk', 'liputan', 'kali', 'uda', 'kesebut', 'inisial']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['bole', 'langsung', 'masuk', 'liput', 'kali', 'uda', 'sebut', 'inisial']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21126</v>
+        <v>24481</v>
       </c>
       <c r="C55" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>pengen ngobrol panjaaaaaang bgt</t>
+          <t>kocak dah</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['pengen', 'ngobrol', 'panjaaaaaang', 'bgt']</t>
+          <t>['kocak', 'dah']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kocak', 'sudah']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['pengen', 'ngobrol', 'panjaaaaaang', 'bgt']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ken', 'ngobrol', 'panjaaaaaang', 'bgt']</t>
+          <t>['kocak']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['kocak']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21127</v>
+        <v>24482</v>
       </c>
       <c r="C56" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>spill dulu ayok siapa</t>
+          <t>have  great daaaaay</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['spill', 'dulu', 'ayok', 'siapa']</t>
+          <t>['have', 'great', 'daaaaay']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['have', 'great', 'daaaaay']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['spill', 'ayok']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['spill', 'ayok']</t>
+          <t>['have', 'great', 'daaaaay']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['have', 'great', 'daaaaay']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21128</v>
+        <v>24483</v>
       </c>
       <c r="C57" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>hahahahahahaha</t>
+          <t>temen lo tu emang</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['hahahahahahaha']</t>
+          <t>['temen', 'lo', 'tu', 'emang']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['teman', 'kamu', 'itu', 'memang']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['hahahahahahaha']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['hahahahahahaha']</t>
+          <t>['teman']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['teman']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21129</v>
+        <v>24484</v>
       </c>
       <c r="C58" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>apa baaang</t>
+          <t>atuuur</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['apa', 'baaang']</t>
+          <t>['atuuur']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['atuuur']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['baaang']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['baaang']</t>
+          <t>['atuuur']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['atuuur']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21130</v>
+        <v>24485</v>
       </c>
       <c r="C59" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>beneran ga ni</t>
+          <t>ogah bgt kalo sm lo yg ada tengah ngobrol ditinggal</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['beneran', 'ga', 'ni']</t>
+          <t>['ogah', 'bgt', 'kalo', 'sm', 'lo', 'yg', 'ada', 'tengah', 'ngobrol', 'ditinggal']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ogah', 'banget', 'kalau', 'sama', 'kamu', 'yang', 'ada', 'tengah', 'mengobrol', 'ditinggal']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['beneran', 'ni']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['beneran', 'ni']</t>
+          <t>['ogah', 'banget', 'mengobrol', 'ditinggal']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ogah', 'banget', 'obrol', 'tinggal']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21131</v>
+        <v>24486</v>
       </c>
       <c r="C60" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gapapa kan asik pindah</t>
+          <t>spill dulu sebelom anda jd buronan bang</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['gapapa', 'kan', 'asik', 'pindah']</t>
+          <t>['spill', 'dulu', 'sebelom', 'anda', 'jd', 'buronan', 'bang']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['spill', 'dulu', 'sebelum', 'anda', 'jadi', 'buronan', 'bang']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['gapapa', 'asik', 'pindah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['gapapa', 'asik', 'pindah']</t>
+          <t>['spill', 'buronan', 'bang']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['spill', 'buron', 'bang']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21132</v>
+        <v>24487</v>
       </c>
       <c r="C61" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ayo semarang</t>
+          <t>reply nya bang rai uda tp doi kaga muncul gue liat ni hajar dulu apa gmn ni</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['ayo', 'semarang']</t>
+          <t>['reply', 'nya', 'bang', 'rai', 'uda', 'tp', 'doi', 'kaga', 'muncul', 'gue', 'liat', 'ni', 'hajar', 'dulu', 'apa', 'gmn', 'ni']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['reply', 'nya', 'bang', 'rai', 'sudah', 'tetapi', 'dia', 'tidak', 'muncul', 'gue', 'lihat', 'nih', 'hajar', 'dulu', 'apa', 'bagaimana', 'nih']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['ayo', 'semarang']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['ayo', 'semarang']</t>
+          <t>['reply', 'bang', 'rai', 'muncul', 'gue', 'lihat', 'hajar']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['reply', 'bang', 'rai', 'muncul', 'gue', 'lihat', 'hajar']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21133</v>
+        <v>24488</v>
       </c>
       <c r="C62" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>dont  know</t>
+          <t>bole langsung masuk liputan kali ya kalo uda kesebut inisial nya</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['dont', 'know']</t>
+          <t>['bole', 'langsung', 'masuk', 'liputan', 'kali', 'ya', 'kalo', 'uda', 'kesebut', 'inisial', 'nya']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['boleh', 'langsung', 'masuk', 'liputan', 'kali', 'ya', 'kalau', 'sudah', 'kesebut', 'inisial', 'nya']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['dont', 'know']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['dont', 'know']</t>
+          <t>['langsung', 'masuk', 'liputan', 'kali', 'kesebut', 'inisial']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['langsung', 'masuk', 'liput', 'kali', 'sebut', 'inisial']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21134</v>
+        <v>24489</v>
       </c>
       <c r="C63" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>emg uda waktu nya ganti laptop</t>
+          <t>pengen ngobrol panjaaaaaang bgt</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['emg', 'uda', 'waktu', 'nya', 'ganti', 'laptop']</t>
+          <t>['pengen', 'ngobrol', 'panjaaaaaang', 'bgt']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ingin', 'mengobrol', 'panjaaaaaang', 'banget']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['emg', 'uda', 'ganti', 'laptop']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['emg', 'uda', 'ganti', 'laptop']</t>
+          <t>['mengobrol', 'panjaaaaaang', 'banget']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['obrol', 'panjaaaaaang', 'banget']</t>
         </is>
       </c>
     </row>
@@ -2707,30 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21135</v>
+        <v>24490</v>
       </c>
       <c r="C64" t="n">
-        <v>255</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>293</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>spill dulu ayok siapa</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['spill', 'dulu', 'ayok', 'siapa']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['spill', 'dulu', 'ayo', 'siapa']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['spill', 'ayo']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['spill', 'ayo']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21136</v>
+        <v>24491</v>
       </c>
       <c r="C65" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>kepo juga</t>
+          <t>hahahahahahaha</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['kepo', 'juga']</t>
+          <t>['hahahahahahaha']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['hahahahahahaha']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['kepo']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kepo']</t>
+          <t>['hahahahahahaha']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['hahahahahahaha']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21137</v>
+        <v>24492</v>
       </c>
       <c r="C66" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cengeng</t>
+          <t>apa baaang</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['cengeng']</t>
+          <t>['apa', 'baaang']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['apa', 'baaang']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['cengeng']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['cengeng']</t>
+          <t>['baaang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['baaang']</t>
         </is>
       </c>
     </row>
@@ -2811,30 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21138</v>
+        <v>24493</v>
       </c>
       <c r="C67" t="n">
-        <v>255</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>293</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>beneran ga ni</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['beneran', 'ga', 'ni']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['benaran', 'tidak', 'nih']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['benaran']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['benar']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21139</v>
+        <v>24494</v>
       </c>
       <c r="C68" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> know its hard to deal with me</t>
+          <t>gapapa kan asik pindah</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['know', 'its', 'hard', 'to', 'deal', 'with', 'me']</t>
+          <t>['gapapa', 'kan', 'asik', 'pindah']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tidak, apa, apa', 'kan', 'asyik', 'pindah']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['know', 'its', 'hard', 'to', 'deal', 'with', 'me']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['know', 'its', 'hard', 'to', 'deal', 'with', 'me']</t>
+          <t>['tidak, apa, apa', 'asyik', 'pindah']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['tidak apa apa', 'asyik', 'pindah']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21140</v>
+        <v>24495</v>
       </c>
       <c r="C69" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ganti wallpaper nya kenapa jd balik kesana lagi si</t>
+          <t>ayo semarang</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['ganti', 'wallpaper', 'nya', 'kenapa', 'jd', 'balik', 'kesana', 'lagi', 'si']</t>
+          <t>['ayo', 'semarang']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ayo', 'semarang']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['ganti', 'wallpaper', 'kesana']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['ganti', 'wallpaper', 'kesana']</t>
+          <t>['ayo', 'semarang']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['ayo', 'semarang']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21141</v>
+        <v>24496</v>
       </c>
       <c r="C70" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kenapa woi</t>
+          <t>dont  know</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['kenapa', 'woi']</t>
+          <t>['dont', 'know']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['do, not', 'know']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['woi']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['woi']</t>
+          <t>['do, not', 'know']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['do not', 'know']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21142</v>
+        <v>24497</v>
       </c>
       <c r="C71" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt tips relationship dari saya nih kalau marah ya marah aja komunikasikan kenapa kamu marah jangan pendam emosi tapi lama</t>
+          <t>emg uda waktu nya ganti laptop</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'tips', 'relationship', 'dari', 'saya', 'nih', 'kalau', 'marah', 'ya', 'marah', 'aja', 'komunikasikan', 'kenapa', 'kamu', 'marah', 'jangan', 'pendam', 'emosi', 'tapi', 'lama']</t>
+          <t>['emg', 'uda', 'waktu', 'nya', 'ganti', 'laptop']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['memang', 'sudah', 'waktu', 'nya', 'ganti', 'laptop']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['tips', 'relationship', 'marah', 'marah', 'komunikasikan', 'marah', 'pendam', 'emosi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['tips', 'relationship', 'marah', 'marah', 'komunikasi', 'marah', 'pendam', 'emosi']</t>
+          <t>['ganti', 'laptop']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['ganti', 'laptop']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3350,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21143</v>
+        <v>24498</v>
       </c>
       <c r="C72" t="n">
-        <v>255</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>good old days</t>
-        </is>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['good', 'old', 'days']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['good', 'old', 'days']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['good', 'old', 'days']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21144</v>
+        <v>24499</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rt forever</t>
+          <t>kepo juga</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rt', 'forever']</t>
+          <t>['kepo', 'juga']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['ingin, tahu', 'juga']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['forever']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['forever']</t>
+          <t>['ingin, tahu']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['ingin tahu']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21145</v>
+        <v>24500</v>
       </c>
       <c r="C74" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kenapa harus si</t>
+          <t>cengeng</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kenapa', 'harus', 'si']</t>
+          <t>['cengeng']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['cengeng']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cengeng']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['cengeng']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3469,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21146</v>
+        <v>24501</v>
       </c>
       <c r="C75" t="n">
-        <v>255</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>yusruly kalo dpt bisa upload lah gengs</t>
-        </is>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['yusruly', 'kalo', 'dpt', 'bisa', 'upload', 'lah', 'gengs']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['yusruly', 'dpt', 'upload', 'gengs']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['yusruly', 'dpt', 'upload', 'gengs']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21147</v>
+        <v>24502</v>
       </c>
       <c r="C76" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>mampus dapet nya online juga</t>
+          <t xml:space="preserve"> know its hard to deal with me</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['mampus', 'dapet', 'nya', 'online', 'juga']</t>
+          <t>['know', 'its', 'hard', 'to', 'deal', 'with', 'me']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['know', 'ini', 'hard', 'to', 'deal', 'dengan', 'me']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['mampus', 'dapet', 'online']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['mampus', 'dapet', 'online']</t>
+          <t>['know', 'hard', 'to', 'deal', 'me']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['know', 'hard', 'to', 'deal', 'me']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21148</v>
+        <v>24503</v>
       </c>
       <c r="C77" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>kkl sendiri di rumah</t>
+          <t>ganti wallpaper nya kenapa jd balik kesana lagi si</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['kkl', 'sendiri', 'di', 'rumah']</t>
+          <t>['ganti', 'wallpaper', 'nya', 'kenapa', 'jd', 'balik', 'kesana', 'lagi', 'si']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ganti', 'wallpaper', 'nya', 'kenapa', 'jadi', 'balik', 'kesana', 'lagi', 'sih']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['kkl', 'rumah']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['kkl', 'rumah']</t>
+          <t>['ganti', 'wallpaper', 'kesana']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['ganti', 'wallpaper', 'kesana']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21149</v>
+        <v>24504</v>
       </c>
       <c r="C78" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>mo ketawa</t>
+          <t>kenapa woi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['mo', 'ketawa']</t>
+          <t>['kenapa', 'woi']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['kenapa', 'woi']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['mo', 'ketawa']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['mo', 'ketawa']</t>
+          <t>['woi']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['woi']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21150</v>
+        <v>24505</v>
       </c>
       <c r="C79" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ada foto kkl kaya gini ga si</t>
+          <t>rt tips relationship dari saya nih kalau marah ya marah aja komunikasikan kenapa kamu marah jangan pendam emosi tapi lama</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['ada', 'foto', 'kkl', 'kaya', 'gini', 'ga', 'si']</t>
+          <t>['rt', 'tips', 'relationship', 'dari', 'saya', 'nih', 'kalau', 'marah', 'ya', 'marah', 'aja', 'komunikasikan', 'kenapa', 'kamu', 'marah', 'jangan', 'pendam', 'emosi', 'tapi', 'lama']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'tips', 'relationship', 'dari', 'saya', 'nih', 'kalau', 'marah', 'ya', 'marah', 'saja', 'komunikasikan', 'kenapa', 'kamu', 'marah', 'jangan', 'pendam', 'emosi', 'tapi', 'lama']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['foto', 'kkl', 'kaya', 'gini']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['foto', 'kkl', 'kaya', 'gin']</t>
+          <t>['tips', 'relationship', 'marah', 'marah', 'komunikasikan', 'marah', 'pendam', 'emosi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tips', 'relationship', 'marah', 'marah', 'komunikasi', 'marah', 'pendam', 'emosi']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21151</v>
+        <v>24506</v>
       </c>
       <c r="C80" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>di kode terus gimana niiii</t>
+          <t>good old days</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['di', 'kode', 'terus', 'gimana', 'niiii']</t>
+          <t>['good', 'old', 'days']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['good', 'old', 'days']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kode', 'gimana', 'niiii']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['kode', 'gimana', 'niiii']</t>
+          <t>['good', 'old', 'days']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['good', 'old', 'days']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21152</v>
+        <v>24507</v>
       </c>
       <c r="C81" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>bener semua tas penuh sm bulu kucing gegara dipake tidur mulu sm mereka</t>
+          <t>rt forever</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['bener', 'semua', 'tas', 'penuh', 'sm', 'bulu', 'kucing', 'gegara', 'dipake', 'tidur', 'mulu', 'sm', 'mereka']</t>
+          <t>['rt', 'forever']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'forever']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['bener', 'tas', 'penuh', 'sm', 'bulu', 'kucing', 'gegara', 'dipake', 'tidur', 'mulu', 'sm']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['bener', 'tas', 'penuh', 'sm', 'bulu', 'kucing', 'gegara', 'dipake', 'tidur', 'mulu', 'sm']</t>
+          <t>['forever']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['forever']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21153</v>
+        <v>24508</v>
       </c>
       <c r="C82" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dosen gue minta revisi sampe detail masalahnya boi</t>
+          <t>kenapa harus si</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['dosen', 'gue', 'minta', 'revisi', 'sampe', 'detail', 'masalahnya', 'boi']</t>
+          <t>['kenapa', 'harus', 'si']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kenapa', 'harus', 'sih']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['dosen', 'gue', 'revisi', 'sampe', 'detail', 'boi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['dosen', 'gue', 'revisi', 'sampe', 'detail', 'boi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21154</v>
+        <v>24509</v>
       </c>
       <c r="C83" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>sans gue minggu cuma proposal terus</t>
+          <t>yusruly kalo dpt bisa upload lah gengs</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['sans', 'gue', 'minggu', 'cuma', 'proposal', 'terus']</t>
+          <t>['yusruly', 'kalo', 'dpt', 'bisa', 'upload', 'lah', 'gengs']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['yusruly', 'kalau', 'dapat', 'bisa', 'unggah', 'lah', 'gengs']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['sans', 'gue', 'minggu', 'proposal']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['sans', 'gue', 'minggu', 'proposal']</t>
+          <t>['yusruly', 'unggah', 'gengs']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['yusruly', 'unggah', 'gengs']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21155</v>
+        <v>24510</v>
       </c>
       <c r="C84" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>tp dosen kknku bener gaenak</t>
+          <t>mampus dapet nya online juga</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['tp', 'dosen', 'kknku', 'bener', 'gaenak']</t>
+          <t>['mampus', 'dapet', 'nya', 'online', 'juga']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['mampus', 'dapat', 'nya', 'online', 'juga']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['tp', 'dosen', 'kknku', 'bener', 'gaenak']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tp', 'dosen', 'kknku', 'bener', 'gaenak']</t>
+          <t>['mampus', 'online']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['mampus', 'online']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21156</v>
+        <v>24511</v>
       </c>
       <c r="C85" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>gue kkn minggu ini cuma revisi proposal doang masa iya tetep di up ke ig si</t>
+          <t>kkl sendiri di rumah</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['gue', 'kkn', 'minggu', 'ini', 'cuma', 'revisi', 'proposal', 'doang', 'masa', 'iya', 'tetep', 'di', 'up', 'ke', 'ig', 'si']</t>
+          <t>['kkl', 'sendiri', 'di', 'rumah']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kkl', 'sendiri', 'di', 'rumah']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['gue', 'kkn', 'minggu', 'revisi', 'proposal', 'doang', 'iya', 'tetep', 'up', 'ig']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['gue', 'kkn', 'minggu', 'revisi', 'proposal', 'doang', 'iya', 'tetep', 'up', 'ig']</t>
+          <t>['kkl', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['kkl', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21157</v>
+        <v>24512</v>
       </c>
       <c r="C86" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rt one of the greatest congratulations on your incredible career wazza what  player good luck on your next chapter</t>
+          <t>mo ketawa</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['rt', 'one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'what', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
+          <t>['mo', 'ketawa']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['mau', 'tertawa']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'what', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'what', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
+          <t>['tertawa']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['tertawa']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21158</v>
+        <v>24513</v>
       </c>
       <c r="C87" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ga tidur ni temenmu satriok</t>
+          <t>ada foto kkl kaya gini ga si</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['ga', 'tidur', 'ni', 'temenmu', 'satriok']</t>
+          <t>['ada', 'foto', 'kkl', 'kaya', 'gini', 'ga', 'si']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ada', 'foto', 'kkl', 'kayak', 'begini', 'tidak', 'sih']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['tidur', 'ni', 'temenmu', 'satriok']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['tidur', 'ni', 'temenmu', 'satriok']</t>
+          <t>['foto', 'kkl', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['foto', 'kkl', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21159</v>
+        <v>24514</v>
       </c>
       <c r="C88" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt happy year anniversary to when  flew to edinburgh to surprise finlay and he flew to paris to surprise me and this is why</t>
+          <t>rt mau kamar yg kedap suara bleh ga</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt', 'happy', 'year', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is', 'why']</t>
+          <t>['rt', 'mau', 'kamar', 'yg', 'kedap', 'suara', 'bleh', 'ga']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'mau', 'kamar', 'yang', 'kedap', 'suara', 'boleh', 'tidak']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['happy', 'year', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is', 'why']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['happy', 'year', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is', 'why']</t>
+          <t>['kamar', 'kedap', 'suara']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kamar', 'kedap', 'suara']</t>
         </is>
       </c>
     </row>
@@ -3599,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21160</v>
+        <v>24515</v>
       </c>
       <c r="C89" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt words</t>
+          <t>di kode terus gimana niiii</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'words']</t>
+          <t>['di', 'kode', 'terus', 'gimana', 'niiii']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['di', 'kode', 'terus', 'bagaimana', 'niiii']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['words']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['words']</t>
+          <t>['kode', 'niiii']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['kode', 'niiii']</t>
         </is>
       </c>
     </row>
@@ -3635,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21161</v>
+        <v>24516</v>
       </c>
       <c r="C90" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt tempe mahal banget segini aja panratusrebu</t>
+          <t>bener semua tas penuh sm bulu kucing gegara dipake tidur mulu sm mereka</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'tempe', 'mahal', 'banget', 'segini', 'aja', 'panratusrebu']</t>
+          <t>['bener', 'semua', 'tas', 'penuh', 'sm', 'bulu', 'kucing', 'gegara', 'dipake', 'tidur', 'mulu', 'sm', 'mereka']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['benar', 'semua', 'tas', 'penuh', 'sama', 'bulu', 'kucing', 'gara, gara', 'dipakai', 'tidur', 'mulu', 'sama', 'mereka']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['tempe', 'mahal', 'banget', 'segini', 'panratusrebu']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['tempe', 'mahal', 'banget', 'gin', 'panratusrebu']</t>
+          <t>['tas', 'penuh', 'bulu', 'kucing', 'gara, gara', 'dipakai', 'tidur', 'mulu']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tas', 'penuh', 'bulu', 'kucing', 'gara gara', 'pakai', 'tidur', 'mulu']</t>
         </is>
       </c>
     </row>
@@ -3671,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21162</v>
+        <v>24517</v>
       </c>
       <c r="C91" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>per hari harus cukup</t>
+          <t>dosen gue minta revisi sampe detail masalahnya boi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['per', 'hari', 'harus', 'cukup']</t>
+          <t>['dosen', 'gue', 'minta', 'revisi', 'sampe', 'detail', 'masalahnya', 'boi']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dosen', 'gue', 'meminta', 'revisi', 'sampai', 'detail', 'masalahnya', 'boi']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dosen', 'gue', 'revisi', 'detail', 'boi']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['dosen', 'gue', 'revisi', 'detail', 'boi']</t>
         </is>
       </c>
     </row>
@@ -3707,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21163</v>
+        <v>24518</v>
       </c>
       <c r="C92" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt ini kkn ngapain toh kok udh hari ke gak ngapain</t>
+          <t>sans gue minggu cuma proposal terus</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'ini', 'kkn', 'ngapain', 'toh', 'kok', 'udh', 'hari', 'ke', 'gak', 'ngapain']</t>
+          <t>['sans', 'gue', 'minggu', 'cuma', 'proposal', 'terus']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['sans', 'gue', 'minggu', 'cuma', 'proposal', 'terus']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['kkn', 'ngapain', 'udh', 'ngapain']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['kkn', 'ngapain', 'udh', 'ngapain']</t>
+          <t>['sans', 'gue', 'minggu', 'proposal']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['sans', 'gue', 'minggu', 'proposal']</t>
         </is>
       </c>
     </row>
@@ -3743,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21164</v>
+        <v>24519</v>
       </c>
       <c r="C93" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>bingung juga dah</t>
+          <t>tp dosen kknku bener gaenak</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['bingung', 'juga', 'dah']</t>
+          <t>['tp', 'dosen', 'kknku', 'bener', 'gaenak']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tetapi', 'dosen', 'kknku', 'benar', 'tidak, enak']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['bingung', 'dah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['bingung', 'dah']</t>
+          <t>['dosen', 'kknku', 'tidak, enak']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['dosen', 'kknku', 'tidak enak']</t>
         </is>
       </c>
     </row>
@@ -3779,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21165</v>
+        <v>24520</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>galak bener bangke</t>
+          <t>gue kkn minggu ini cuma revisi proposal doang masa iya tetep di up ke ig si</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['galak', 'bener', 'bangke']</t>
+          <t>['gue', 'kkn', 'minggu', 'ini', 'cuma', 'revisi', 'proposal', 'doang', 'masa', 'iya', 'tetep', 'di', 'up', 'ke', 'ig', 'si']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['gue', 'kkn', 'minggu', 'ini', 'cuma', 'revisi', 'proposal', 'doang', 'masa', 'iya', 'tetap', 'di', 'up', 'ke', 'instagram', 'sih']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['galak', 'bener', 'bangke']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['galak', 'bener', 'bangke']</t>
+          <t>['gue', 'kkn', 'minggu', 'revisi', 'proposal', 'doang', 'iya', 'up', 'instagram']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['gue', 'kkn', 'minggu', 'revisi', 'proposal', 'doang', 'iya', 'up', 'instagram']</t>
         </is>
       </c>
     </row>
@@ -3815,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21166</v>
+        <v>24521</v>
       </c>
       <c r="C95" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt gw belajar komitmen tuh bukan berarti lo gaakan nemu orang yg lebih cakep atau lebih baik tapi lo udh nutup pintu buat apap</t>
+          <t>rt one of the greatest congratulations on your incredible career wazza what  player good luck on your next chapter</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'gw', 'belajar', 'komitmen', 'tuh', 'bukan', 'berarti', 'lo', 'gaakan', 'nemu', 'orang', 'yg', 'lebih', 'cakep', 'atau', 'lebih', 'baik', 'tapi', 'lo', 'udh', 'nutup', 'pintu', 'buat', 'apap']</t>
+          <t>['rt', 'one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'what', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 24 outcomes&gt;</t>
+          <t>['rt', 'one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'apa', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['gw', 'belajar', 'komitmen', 'lo', 'gaakan', 'nemu', 'orang', 'cakep', 'lo', 'udh', 'nutup', 'pintu', 'apap']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['gw', 'ajar', 'komitmen', 'lo', 'gaakan', 'nemu', 'orang', 'cakep', 'lo', 'udh', 'nutup', 'pintu', 'apap']</t>
+          <t>['one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['one', 'of', 'the', 'greatest', 'congratulations', 'on', 'your', 'incredible', 'career', 'wazza', 'player', 'good', 'luck', 'on', 'your', 'next', 'chapter']</t>
         </is>
       </c>
     </row>
@@ -3851,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21167</v>
+        <v>24522</v>
       </c>
       <c r="C96" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>gimana ni bro</t>
+          <t>ga tidur ni temenmu satriok</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['gimana', 'ni', 'bro']</t>
+          <t>['ga', 'tidur', 'ni', 'temenmu', 'satriok']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tidak', 'tidur', 'nih', 'temenmu', 'satriok']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['gimana', 'ni', 'bro']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['gimana', 'ni', 'bro']</t>
+          <t>['tidur', 'temenmu', 'satriok']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['tidur', 'temenmu', 'satriok']</t>
         </is>
       </c>
     </row>
@@ -3887,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21168</v>
+        <v>24523</v>
       </c>
       <c r="C97" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ga ansos sorry aja ni meeen</t>
+          <t>rt happy year anniversary to when  flew to edinburgh to surprise finlay and he flew to paris to surprise me and this is why</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['ga', 'ansos', 'sorry', 'aja', 'ni', 'meeen']</t>
+          <t>['rt', 'happy', 'year', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is', 'why']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'happy', 'tahun', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is', 'kenapa']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['ansos', 'sorry', 'ni', 'meeen']</t>
+          <t>&lt;FreqDist with 17 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['ansos', 'sorry', 'ni', 'meeen']</t>
+          <t>['happy', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['happy', 'anniversary', 'to', 'when', 'flew', 'to', 'edinburgh', 'to', 'surprise', 'finlay', 'and', 'he', 'flew', 'to', 'paris', 'to', 'surprise', 'me', 'and', 'this', 'is']</t>
         </is>
       </c>
     </row>
@@ -3923,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21169</v>
+        <v>24524</v>
       </c>
       <c r="C98" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>sakit bgt perut</t>
+          <t>rt words</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['sakit', 'bgt', 'perut']</t>
+          <t>['rt', 'words']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'kata']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['sakit', 'bgt', 'perut']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['sakit', 'bgt', 'perut']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3959,34 +4449,121 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21170</v>
+        <v>24525</v>
       </c>
       <c r="C99" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>matamu</t>
+          <t>rt tempe mahal banget segini aja panratusrebu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['matamu']</t>
+          <t>['rt', 'tempe', 'mahal', 'banget', 'segini', 'aja', 'panratusrebu']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'tempe', 'mahal', 'banget', 'segini', 'saja', 'panratusrebu']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['matamu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['mata']</t>
+          <t>['tempe', 'mahal', 'banget', 'segini', 'panratusrebu']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['tempe', 'mahal', 'banget', 'gin', 'panratusrebu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24526</v>
+      </c>
+      <c r="C100" t="n">
+        <v>293</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>per hari harus cukup</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['per', 'hari', 'harus', 'cukup']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['per', 'hari', 'harus', 'cukup']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24527</v>
+      </c>
+      <c r="C101" t="n">
+        <v>293</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rt ini kkn ngapain toh kok udh hari ke gak ngapain</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['rt', 'ini', 'kkn', 'ngapain', 'toh', 'kok', 'udh', 'hari', 'ke', 'gak', 'ngapain']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['rt', 'ini', 'kkn', 'apa', 'toh', 'kok', 'sudah', 'hari', 'ke', 'tidak', 'apa']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['kkn']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['kkn']</t>
         </is>
       </c>
     </row>
